--- a/CompTask2/TestDataEditShareSkill.xlsx
+++ b/CompTask2/TestDataEditShareSkill.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndustryConnect\CompetitionTask\MarsCompetitionTask2\CompTask2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A541FB2-EB07-4DB3-BC8D-85E40B949917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF3DE0D-1009-44F5-B12E-E1E93FC0699B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{168D41BA-02C2-4169-969B-196BB60497F6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EditShareSkill" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>title</t>
   </si>
@@ -93,16 +94,42 @@
   </si>
   <si>
     <t>All ages Ballet Dancer</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/</t>
+  </si>
+  <si>
+    <t>bbindya@gmail.com</t>
+  </si>
+  <si>
+    <t>binda581214</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,13 +152,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,7 +477,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,4 +564,50 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FF6EFF-443A-4959-9F55-BC0E74F1AB39}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{FE104BE0-8AD5-4A00-A199-EF0B4FD56F58}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{714DC199-6BC8-4C22-BBF9-CA04A4F15444}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>